--- a/Matrice des dépendances fonctionnelles.xlsx
+++ b/Matrice des dépendances fonctionnelles.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -183,9 +183,6 @@
     <t>Seuil_Seuil_de_Fraicheur</t>
   </si>
   <si>
-    <t>ID_Stock</t>
-  </si>
-  <si>
     <t>Quantité_1_potions</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>Quantité_4_onguent</t>
+  </si>
+  <si>
+    <t>ID_Stock/Quantité</t>
   </si>
 </sst>
 </file>
@@ -350,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -409,6 +409,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,7 +751,7 @@
     <col min="11" max="11" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="7"/>
       <c r="C1" s="2">
@@ -779,8 +781,11 @@
       <c r="K1" s="18">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -802,8 +807,9 @@
         <v>1</v>
       </c>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>A2+1</f>
         <v>2</v>
@@ -822,8 +828,9 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A46" si="0">A3+1</f>
         <v>3</v>
@@ -842,8 +849,9 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -862,8 +870,9 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -882,14 +891,15 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -902,8 +912,9 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -922,14 +933,15 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -942,8 +954,9 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -962,14 +975,15 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -982,8 +996,9 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1002,14 +1017,15 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1022,8 +1038,9 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1046,8 +1063,9 @@
         <v>1</v>
       </c>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1066,8 +1084,9 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1086,14 +1105,15 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
@@ -1106,14 +1126,15 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
@@ -1126,14 +1147,15 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
@@ -1146,14 +1168,15 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
@@ -1166,14 +1189,15 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
@@ -1186,14 +1210,15 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="20"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
@@ -1206,14 +1231,15 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
@@ -1226,14 +1252,15 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="20"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
@@ -1246,8 +1273,9 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1265,13 +1293,12 @@
       <c r="F25" s="1"/>
       <c r="G25" s="17"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1">
-        <v>1</v>
-      </c>
+      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1290,8 +1317,9 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="20"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1318,8 +1346,9 @@
       <c r="K27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="20"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1338,8 +1367,9 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1358,8 +1388,9 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1378,8 +1409,9 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="20"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1400,8 +1432,9 @@
       <c r="I31" s="16"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1420,8 +1453,9 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="20"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1452,8 +1486,9 @@
       <c r="K33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="20"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1472,8 +1507,9 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1492,8 +1528,9 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="20"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1512,8 +1549,9 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36" s="20"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1523,9 +1561,7 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
+      <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="16">
@@ -1536,8 +1572,9 @@
         <v>1</v>
       </c>
       <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37" s="20"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1556,8 +1593,9 @@
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="20"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1576,8 +1614,9 @@
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="20"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1596,8 +1635,9 @@
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="20"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1622,8 +1662,11 @@
       </c>
       <c r="J41" s="14"/>
       <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1642,8 +1685,9 @@
         <v>1</v>
       </c>
       <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="20"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1662,8 +1706,9 @@
         <v>1</v>
       </c>
       <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="20"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1688,8 +1733,9 @@
       <c r="I44" s="1"/>
       <c r="J44" s="16"/>
       <c r="K44" s="14"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="20"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1708,26 +1754,36 @@
       <c r="K45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="20"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
+      <c r="B46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="19">
+        <v>1</v>
+      </c>
+      <c r="D46" s="19">
+        <v>1</v>
+      </c>
       <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+      <c r="F46" s="19">
+        <v>1</v>
+      </c>
       <c r="G46" s="19"/>
-      <c r="H46" s="1"/>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1">
-        <v>1</v>
-      </c>
+      <c r="J46" s="1">
+        <v>1</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Matrice des dépendances fonctionnelles.xlsx
+++ b/Matrice des dépendances fonctionnelles.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>ID_service</t>
   </si>
@@ -220,6 +220,33 @@
   </si>
   <si>
     <t>ID_Stock/Quantité</t>
+  </si>
+  <si>
+    <t>Température_potions</t>
+  </si>
+  <si>
+    <t>Prix_Ingrédients</t>
+  </si>
+  <si>
+    <t>ID_Commande_Giselle</t>
+  </si>
+  <si>
+    <t>Numéro_Commande_Giselle</t>
+  </si>
+  <si>
+    <t>Date_Commande_Giselle</t>
+  </si>
+  <si>
+    <t>Etat_Commande_Giselle</t>
+  </si>
+  <si>
+    <t>Quantité</t>
+  </si>
+  <si>
+    <t>Prénom_Inventeur</t>
+  </si>
+  <si>
+    <t>Prénom_Client</t>
   </si>
 </sst>
 </file>
@@ -297,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -346,11 +373,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -406,11 +446,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,7 +797,7 @@
     <col min="11" max="11" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="7"/>
       <c r="C1" s="2">
@@ -784,8 +830,11 @@
       <c r="L1" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -807,9 +856,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="20"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>A2+1</f>
         <v>2</v>
@@ -828,11 +878,12 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="20"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
-        <f t="shared" ref="A4:A46" si="0">A3+1</f>
+        <f t="shared" ref="A4:A55" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -849,11 +900,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="16"/>
-      <c r="L4" s="20"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
-        <f t="shared" si="0"/>
+        <f>A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -870,15 +922,16 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="20"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
-        <f t="shared" si="0"/>
+        <f>A5+1</f>
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>24</v>
+      <c r="B6" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -891,15 +944,16 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="20"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>A5+1</f>
+        <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -912,36 +966,38 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="20"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="16"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="20"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>53</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -954,36 +1010,38 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="20"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="20"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>54</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -996,36 +1054,38 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="20"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="16"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>55</v>
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1038,61 +1098,64 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="20"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="20"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="20"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
@@ -1105,15 +1168,16 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="20"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>56</v>
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
@@ -1126,15 +1190,16 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="20"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
@@ -1147,15 +1212,16 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="20"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
@@ -1168,15 +1234,16 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="20"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
@@ -1189,15 +1256,16 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="20"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
@@ -1210,15 +1278,16 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="20"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
@@ -1231,15 +1300,16 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="20"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
@@ -1252,15 +1322,16 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="20"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
@@ -1273,130 +1344,136 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="20"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="17"/>
+      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="20"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="14"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="16"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="20"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1">
-        <v>1</v>
-      </c>
-      <c r="L27" s="20"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K27" s="1"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="17"/>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="20"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+        <f>A27+1</f>
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="16"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="20"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1405,274 +1482,276 @@
         <v>1</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="17"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="20"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="1">
-        <v>1</v>
-      </c>
-      <c r="I31" s="16"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="20"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f>A30+1</f>
+        <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1"/>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="16"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="20"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1">
         <v>1</v>
       </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="1">
-        <v>1</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1">
-        <v>1</v>
-      </c>
-      <c r="L33" s="20"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="14"/>
       <c r="H34" s="1">
         <v>1</v>
       </c>
-      <c r="I34" s="1"/>
+      <c r="I34" s="16"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="20"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1">
-        <v>1</v>
-      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="20"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1">
-        <v>1</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="20"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="14"/>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1</v>
+      </c>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="16">
-        <v>1</v>
-      </c>
-      <c r="I37" s="14"/>
-      <c r="J37" s="1">
-        <v>1</v>
-      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="20"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1">
-        <v>1</v>
-      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="20"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1">
-        <v>1</v>
-      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="20"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1">
-        <v>1</v>
-      </c>
-      <c r="J40" s="1"/>
+      <c r="H40" s="16">
+        <v>1</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
       <c r="K40" s="1"/>
-      <c r="L40" s="20"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1">
-        <v>1</v>
-      </c>
-      <c r="I41" s="16">
-        <v>1</v>
-      </c>
-      <c r="J41" s="14"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1680,20 +1759,21 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1">
-        <v>1</v>
-      </c>
+      <c r="I42" s="1">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="20"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <f>A41+1</f>
+        <v>38</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1701,89 +1781,303 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1">
-        <v>1</v>
-      </c>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="20"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
+      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1">
-        <v>1</v>
-      </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="20"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H44" s="1"/>
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1">
-        <v>1</v>
-      </c>
-      <c r="L45" s="20"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45" s="16">
+        <v>1</v>
+      </c>
+      <c r="J45" s="14"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45" s="19"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="19">
-        <v>1</v>
-      </c>
-      <c r="D46" s="19">
-        <v>1</v>
-      </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19">
-        <v>1</v>
-      </c>
-      <c r="G46" s="19"/>
-      <c r="H46" s="1">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1">
         <v>1</v>
       </c>
       <c r="K46" s="1"/>
-      <c r="L46" s="21"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="20">
+        <v>1</v>
+      </c>
+      <c r="D50" s="20">
+        <v>1</v>
+      </c>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20">
+        <v>1</v>
+      </c>
+      <c r="G50" s="20"/>
+      <c r="H50" s="21">
+        <v>1</v>
+      </c>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21">
+        <v>1</v>
+      </c>
+      <c r="K50" s="21"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="19"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="23">
+        <v>1</v>
+      </c>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <f>A50+1</f>
+        <v>46</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1"/>
+      <c r="M52" s="14"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
